--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-556152.3899480355</v>
+        <v>-558853.6065994921</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59.8012719186828</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>225.4031397636151</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
     </row>
     <row r="3">
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>47.02389488147639</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>35.94610573715037</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>48.8594821886841</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>96.38950883034514</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>169.0912990306101</v>
       </c>
       <c r="F5" t="n">
-        <v>186.7103648106756</v>
+        <v>383.6877278154303</v>
       </c>
       <c r="G5" t="n">
-        <v>12.41899097776992</v>
+        <v>383.6877278154303</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.30025118863702</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3066953660376</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4722490968155</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41.66238456738456</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -987,10 +987,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.3873650775601</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333227</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.36018225871392</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698458</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238326</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8398728426018</v>
@@ -1038,7 +1038,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1054,28 +1054,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>51.52472061390794</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6504118237700257</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643493</v>
+        <v>1.905236112643635</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>333.6957099329082</v>
+        <v>361.8849893045058</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,10 +1303,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>202.4314882825229</v>
       </c>
       <c r="U10" t="n">
-        <v>172.0199132219072</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>348.0476000749188</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184555</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615218</v>
+        <v>98.88510599615211</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>305.9906544480684</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7575643133521</v>
+        <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812553</v>
+        <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530795</v>
+        <v>10.48847705530788</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>40.94726635561179</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927379</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2007761200435</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>55.48401386660263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>206.7582264966184</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229274</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>121.2558461704901</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>139.1584054594682</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881288</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>206.7582264966179</v>
+        <v>171.6971896214537</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>20.92847288552966</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>103.168699193619</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703272</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>211.1474991249028</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>168.4805514670957</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>31.24750433886421</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.799772605716015</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3554,7 +3554,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703262</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053466</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>1.799772605716703</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695618</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>14.75529838241508</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>367.789405660333</v>
+        <v>294.4202677165021</v>
       </c>
       <c r="C2" t="n">
-        <v>101.4117490931551</v>
+        <v>294.4202677165021</v>
       </c>
       <c r="D2" t="n">
-        <v>101.4117490931551</v>
+        <v>294.4202677165021</v>
       </c>
       <c r="E2" t="n">
-        <v>101.4117490931551</v>
+        <v>294.4202677165021</v>
       </c>
       <c r="F2" t="n">
-        <v>94.46624834395162</v>
+        <v>287.4747669672986</v>
       </c>
       <c r="G2" t="n">
-        <v>81.50243557050716</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>81.50243557050716</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030607</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991321</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>634.167062227511</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>634.167062227511</v>
+        <v>788.477863438847</v>
       </c>
       <c r="X2" t="n">
-        <v>367.789405660333</v>
+        <v>560.7979242836801</v>
       </c>
       <c r="Y2" t="n">
-        <v>367.789405660333</v>
+        <v>294.4202677165021</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>407.9123684024154</v>
+        <v>180.334565405576</v>
       </c>
       <c r="C3" t="n">
-        <v>407.9123684024154</v>
+        <v>180.334565405576</v>
       </c>
       <c r="D3" t="n">
-        <v>258.9779587411641</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E3" t="n">
-        <v>258.9779587411641</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>258.9779587411641</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004801</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>247.73581335547</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>438.3365024519939</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>648.3904695545989</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098642</v>
+        <v>1007.356636287362</v>
       </c>
       <c r="T3" t="n">
-        <v>906.2192216098642</v>
+        <v>810.5475579187996</v>
       </c>
       <c r="U3" t="n">
-        <v>906.2192216098642</v>
+        <v>810.5475579187996</v>
       </c>
       <c r="V3" t="n">
-        <v>906.2192216098642</v>
+        <v>810.5475579187996</v>
       </c>
       <c r="W3" t="n">
-        <v>651.9818648816627</v>
+        <v>556.310201190598</v>
       </c>
       <c r="X3" t="n">
-        <v>615.6726671673694</v>
+        <v>556.310201190598</v>
       </c>
       <c r="Y3" t="n">
-        <v>407.9123684024154</v>
+        <v>348.5499024256441</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>393.3076787063516</v>
+        <v>343.5878441116391</v>
       </c>
       <c r="C4" t="n">
-        <v>224.3714957784447</v>
+        <v>343.5878441116391</v>
       </c>
       <c r="D4" t="n">
-        <v>224.3714957784447</v>
+        <v>343.5878441116391</v>
       </c>
       <c r="E4" t="n">
-        <v>224.3714957784447</v>
+        <v>343.5878441116391</v>
       </c>
       <c r="F4" t="n">
-        <v>224.3714957784447</v>
+        <v>343.5878441116391</v>
       </c>
       <c r="G4" t="n">
         <v>175.0184834666425</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>957.4923797733532</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407075</v>
+        <v>750.7053451838644</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407075</v>
+        <v>525.2363089418787</v>
       </c>
       <c r="U4" t="n">
-        <v>659.6853352735295</v>
+        <v>525.2363089418787</v>
       </c>
       <c r="V4" t="n">
-        <v>659.6853352735295</v>
+        <v>525.2363089418787</v>
       </c>
       <c r="W4" t="n">
-        <v>393.3076787063516</v>
+        <v>525.2363089418787</v>
       </c>
       <c r="X4" t="n">
-        <v>393.3076787063516</v>
+        <v>525.2363089418787</v>
       </c>
       <c r="Y4" t="n">
-        <v>393.3076787063516</v>
+        <v>525.2363089418787</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>617.624034246151</v>
+        <v>1389.996673518249</v>
       </c>
       <c r="C5" t="n">
-        <v>617.624034246151</v>
+        <v>1389.996673518249</v>
       </c>
       <c r="D5" t="n">
-        <v>617.624034246151</v>
+        <v>1389.996673518249</v>
       </c>
       <c r="E5" t="n">
-        <v>231.8357816479068</v>
+        <v>1219.197381568138</v>
       </c>
       <c r="F5" t="n">
-        <v>43.23945355631526</v>
+        <v>831.6340201384102</v>
       </c>
       <c r="G5" t="n">
-        <v>30.69501822523453</v>
+        <v>444.0706587086826</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523453</v>
+        <v>130.9983022541607</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523453</v>
+        <v>30.69501822523442</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275169</v>
+        <v>93.76641159275096</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245566</v>
+        <v>239.0325989245555</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825642</v>
+        <v>456.1499114825622</v>
       </c>
       <c r="M5" t="n">
-        <v>729.404193174887</v>
+        <v>729.4041931748845</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202381</v>
+        <v>1011.693823202378</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798415</v>
+        <v>1264.916654798411</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189412</v>
+        <v>1446.535482189407</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261726</v>
+        <v>1534.750911261721</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261726</v>
+        <v>1534.750911261721</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261726</v>
+        <v>1389.996673518249</v>
       </c>
       <c r="T5" t="n">
-        <v>1322.152679850802</v>
+        <v>1389.996673518249</v>
       </c>
       <c r="U5" t="n">
-        <v>1322.152679850802</v>
+        <v>1389.996673518249</v>
       </c>
       <c r="V5" t="n">
-        <v>991.089792507231</v>
+        <v>1389.996673518249</v>
       </c>
       <c r="W5" t="n">
-        <v>991.089792507231</v>
+        <v>1389.996673518249</v>
       </c>
       <c r="X5" t="n">
-        <v>617.624034246151</v>
+        <v>1389.996673518249</v>
       </c>
       <c r="Y5" t="n">
-        <v>617.624034246151</v>
+        <v>1389.996673518249</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>434.7840898334336</v>
+        <v>604.9846379130968</v>
       </c>
       <c r="C6" t="n">
-        <v>434.7840898334336</v>
+        <v>604.9846379130968</v>
       </c>
       <c r="D6" t="n">
-        <v>434.7840898334336</v>
+        <v>456.0502282518455</v>
       </c>
       <c r="E6" t="n">
-        <v>275.5466348279781</v>
+        <v>296.81277324639</v>
       </c>
       <c r="F6" t="n">
-        <v>129.0120768548631</v>
+        <v>150.278215273275</v>
       </c>
       <c r="G6" t="n">
-        <v>129.0120768548631</v>
+        <v>30.69501822523442</v>
       </c>
       <c r="H6" t="n">
-        <v>30.69501822523453</v>
+        <v>30.69501822523442</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523453</v>
+        <v>30.69501822523442</v>
       </c>
       <c r="J6" t="n">
-        <v>49.44206107563438</v>
+        <v>174.2721860626388</v>
       </c>
       <c r="K6" t="n">
-        <v>159.638568016945</v>
+        <v>284.4686930039489</v>
       </c>
       <c r="L6" t="n">
-        <v>354.1339118482971</v>
+        <v>478.9640368353006</v>
       </c>
       <c r="M6" t="n">
-        <v>733.9847623855744</v>
+        <v>725.2877975060462</v>
       </c>
       <c r="N6" t="n">
-        <v>1001.236624957797</v>
+        <v>992.5396600782683</v>
       </c>
       <c r="O6" t="n">
-        <v>1319.294480749983</v>
+        <v>1214.803107243787</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.347425948671</v>
+        <v>1373.856052442474</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261726</v>
+        <v>1534.750911261721</v>
       </c>
       <c r="R6" t="n">
-        <v>1534.750911261726</v>
+        <v>1530.34668675797</v>
       </c>
       <c r="S6" t="n">
-        <v>1390.282497655821</v>
+        <v>1530.34668675797</v>
       </c>
       <c r="T6" t="n">
-        <v>1194.377855207505</v>
+        <v>1530.34668675797</v>
       </c>
       <c r="U6" t="n">
-        <v>966.2567715281098</v>
+        <v>1302.225603078574</v>
       </c>
       <c r="V6" t="n">
-        <v>731.1046632963671</v>
+        <v>1067.073494846831</v>
       </c>
       <c r="W6" t="n">
-        <v>476.8673065681655</v>
+        <v>812.8361381186296</v>
       </c>
       <c r="X6" t="n">
-        <v>476.8673065681655</v>
+        <v>604.9846379130968</v>
       </c>
       <c r="Y6" t="n">
-        <v>476.8673065681655</v>
+        <v>604.9846379130968</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>180.1664282851787</v>
+        <v>400.9590074287068</v>
       </c>
       <c r="C7" t="n">
-        <v>180.1664282851787</v>
+        <v>348.9138350914261</v>
       </c>
       <c r="D7" t="n">
-        <v>180.1664282851787</v>
+        <v>348.9138350914261</v>
       </c>
       <c r="E7" t="n">
-        <v>180.1664282851787</v>
+        <v>201.0007415090329</v>
       </c>
       <c r="F7" t="n">
-        <v>33.27648078726838</v>
+        <v>201.0007415090329</v>
       </c>
       <c r="G7" t="n">
-        <v>33.27648078726838</v>
+        <v>32.61949914709668</v>
       </c>
       <c r="H7" t="n">
-        <v>32.61949914709664</v>
+        <v>32.61949914709668</v>
       </c>
       <c r="I7" t="n">
-        <v>32.61949914709664</v>
+        <v>32.61949914709668</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523453</v>
+        <v>30.69501822523442</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223268</v>
+        <v>157.4322756223265</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830392</v>
+        <v>375.1387655830386</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388158</v>
+        <v>615.0688576388147</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974832</v>
+        <v>854.7285647974818</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891673</v>
+        <v>1060.076798891671</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934023</v>
+        <v>1212.267005934021</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495185</v>
+        <v>1234.200536495183</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495185</v>
+        <v>1234.200536495183</v>
       </c>
       <c r="S7" t="n">
-        <v>1234.200536495185</v>
+        <v>1234.200536495183</v>
       </c>
       <c r="T7" t="n">
-        <v>1234.200536495185</v>
+        <v>1234.200536495183</v>
       </c>
       <c r="U7" t="n">
-        <v>945.0606656715563</v>
+        <v>945.0606656715543</v>
       </c>
       <c r="V7" t="n">
-        <v>690.3761774656695</v>
+        <v>690.3761774656674</v>
       </c>
       <c r="W7" t="n">
-        <v>400.9590074287088</v>
+        <v>400.9590074287068</v>
       </c>
       <c r="X7" t="n">
-        <v>400.9590074287088</v>
+        <v>400.9590074287068</v>
       </c>
       <c r="Y7" t="n">
-        <v>180.1664282851787</v>
+        <v>400.9590074287068</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1251.460966789571</v>
+        <v>1582.523854133141</v>
       </c>
       <c r="C8" t="n">
-        <v>1251.460966789571</v>
+        <v>1213.56133719273</v>
       </c>
       <c r="D8" t="n">
-        <v>1251.460966789571</v>
+        <v>1213.56133719273</v>
       </c>
       <c r="E8" t="n">
-        <v>865.6727141913266</v>
+        <v>827.7730845944852</v>
       </c>
       <c r="F8" t="n">
-        <v>454.686809401719</v>
+        <v>416.7871798048777</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4823,31 +4823,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664336</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320765</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.926725050651</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X8" t="n">
-        <v>1251.460966789571</v>
+        <v>1582.523854133141</v>
       </c>
       <c r="Y8" t="n">
-        <v>1251.460966789571</v>
+        <v>1582.523854133141</v>
       </c>
     </row>
     <row r="9">
@@ -4863,13 +4863,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4878,10 +4878,10 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
         <v>298.3188265310613</v>
@@ -4890,22 +4890,22 @@
         <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.25321078144</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560478</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.50262973664</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568937</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>981.8280128167645</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="C10" t="n">
-        <v>812.8918298888576</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>662.7751904765219</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>514.8620968941287</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962184</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.233965749941</v>
+        <v>1329.386462799652</v>
       </c>
       <c r="U10" t="n">
-        <v>1163.476477647004</v>
+        <v>1040.26812530349</v>
       </c>
       <c r="V10" t="n">
-        <v>1163.476477647004</v>
+        <v>785.5836370976028</v>
       </c>
       <c r="W10" t="n">
-        <v>1163.476477647004</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="X10" t="n">
-        <v>1163.476477647004</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="Y10" t="n">
-        <v>1163.476477647004</v>
+        <v>496.1664670606423</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2309.06237243946</v>
+        <v>1549.87461825519</v>
       </c>
       <c r="C11" t="n">
-        <v>1940.099855499048</v>
+        <v>1549.87461825519</v>
       </c>
       <c r="D11" t="n">
-        <v>1581.834156892298</v>
+        <v>1191.60891964844</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.045904294054</v>
+        <v>805.8206670501954</v>
       </c>
       <c r="F11" t="n">
-        <v>785.0599995044468</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="G11" t="n">
-        <v>370.4442349455922</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592066</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592066</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706888</v>
+        <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656951</v>
+        <v>695.1615405656967</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625329</v>
+        <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087829</v>
+        <v>1828.956123087832</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484041</v>
+        <v>2455.600890484043</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535293</v>
+        <v>3033.988513535297</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479992</v>
+        <v>3493.127967479996</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464057</v>
+        <v>3789.749829464062</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796033</v>
+        <v>3876.883295796037</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345374</v>
+        <v>3776.999350345378</v>
       </c>
       <c r="T11" t="n">
-        <v>3776.999350345374</v>
+        <v>3573.020743926743</v>
       </c>
       <c r="U11" t="n">
-        <v>3776.999350345374</v>
+        <v>3319.526802048271</v>
       </c>
       <c r="V11" t="n">
-        <v>3776.999350345374</v>
+        <v>2988.463914704701</v>
       </c>
       <c r="W11" t="n">
-        <v>3424.23069507526</v>
+        <v>2635.695259434586</v>
       </c>
       <c r="X11" t="n">
-        <v>3050.76493681418</v>
+        <v>2326.613790295124</v>
       </c>
       <c r="Y11" t="n">
-        <v>2660.625604838368</v>
+        <v>1936.474458319312</v>
       </c>
     </row>
     <row r="12">
@@ -5106,34 +5106,34 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
         <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390848</v>
+        <v>88.1320871839085</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592066</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592066</v>
+        <v>163.8264199621922</v>
       </c>
       <c r="K12" t="n">
-        <v>354.4735703335447</v>
+        <v>440.7623243798165</v>
       </c>
       <c r="L12" t="n">
-        <v>773.1706109914959</v>
+        <v>859.4593650377682</v>
       </c>
       <c r="M12" t="n">
-        <v>1281.127176948024</v>
+        <v>1367.415930994297</v>
       </c>
       <c r="N12" t="n">
-        <v>1816.936486649233</v>
+        <v>1903.225240695506</v>
       </c>
       <c r="O12" t="n">
-        <v>2284.877530981756</v>
+        <v>2371.16628502803</v>
       </c>
       <c r="P12" t="n">
         <v>2371.16628502803</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>611.1284280680148</v>
+        <v>894.5316017211545</v>
       </c>
       <c r="C13" t="n">
-        <v>611.1284280680148</v>
+        <v>725.5954187932476</v>
       </c>
       <c r="D13" t="n">
-        <v>461.0117886556791</v>
+        <v>684.2345436865692</v>
       </c>
       <c r="E13" t="n">
-        <v>313.098695073286</v>
+        <v>536.3214501041761</v>
       </c>
       <c r="F13" t="n">
-        <v>313.098695073286</v>
+        <v>389.4315026062657</v>
       </c>
       <c r="G13" t="n">
-        <v>313.098695073286</v>
+        <v>221.933519417454</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717527</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592066</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758646</v>
+        <v>136.8552218758649</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648141</v>
+        <v>364.1690246648145</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344805</v>
+        <v>710.578865434481</v>
       </c>
       <c r="M13" t="n">
         <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336946</v>
+        <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818663</v>
+        <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010721</v>
+        <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742806</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742806</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="S13" t="n">
-        <v>1949.247121276102</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="T13" t="n">
-        <v>1728.355788710543</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="U13" t="n">
-        <v>1439.264095659993</v>
+        <v>1848.271275692259</v>
       </c>
       <c r="V13" t="n">
-        <v>1184.579607454107</v>
+        <v>1593.586787486372</v>
       </c>
       <c r="W13" t="n">
-        <v>895.1624374171461</v>
+        <v>1304.169617449412</v>
       </c>
       <c r="X13" t="n">
-        <v>667.1728865191287</v>
+        <v>1076.180066551394</v>
       </c>
       <c r="Y13" t="n">
-        <v>611.1284280680148</v>
+        <v>1076.180066551394</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
@@ -5285,13 +5285,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,16 +5303,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852888</v>
@@ -5321,7 +5321,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429801</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5440,7 +5440,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2227.361618603201</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5492,13 +5492,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958738</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>802.9288273958738</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>652.812187983538</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>504.8990944011449</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>358.0091469032385</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
         <v>435.7419440038341</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304622</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369644</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261134</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5750,25 +5750,25 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5829,22 +5829,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5935,25 +5935,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>2227.361618603201</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +5999,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876697</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597628</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474273</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>261.8464821474273</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>114.956534649517</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>114.956534649517</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,49 +6148,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614396</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179095</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075799</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,16 +6257,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,13 +6382,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6397,37 +6397,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="29">
@@ -6458,19 +6458,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355936</v>
@@ -6494,16 +6494,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925703</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6689,19 +6689,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6713,34 +6713,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400718</v>
+        <v>951.7772127656162</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>782.8410298377094</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>632.7243904253736</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429805</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429805</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703115</v>
+        <v>951.7772127656162</v>
       </c>
     </row>
     <row r="35">
@@ -6929,37 +6929,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6971,7 +6971,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138416</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="38">
@@ -7166,40 +7166,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,61 +7397,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121649</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121649</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121649</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121649</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270448</v>
+        <v>177.7213185270444</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="44">
@@ -7640,37 +7640,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492578</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,25 +7719,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>733.4550657171304</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C46" t="n">
-        <v>564.5188827892235</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D46" t="n">
-        <v>564.5188827892235</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270444</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473702</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5.262887399594518</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>92.05878169167812</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438636994</v>
+        <v>34.43939438637025</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,19 +8301,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>134.8758483500314</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>96.76202891582551</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>105.5468419254466</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,22 +8538,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>255.5240487471581</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071651</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>0.9556134883071081</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34.68624158856183</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184569</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>63.74044623040063</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>107.6682066626006</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927373</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905246</v>
+        <v>79.81330679905237</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>163.1006394854922</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101223</v>
+        <v>66.37524671012459</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>45.37941682720964</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>44.26829212177876</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>112.9792378643598</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24133,16 +24133,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>45.37941682721009</v>
+        <v>80.44045370237427</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H25" t="n">
-        <v>119.3662399606942</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459331</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.2291039219417</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,19 +24889,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>6.25795120238547</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>57.22910392194146</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>187.3371490132306</v>
       </c>
     </row>
     <row r="35">
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194264</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.4949402405072</v>
+        <v>57.2291039219421</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>131.6786642641541</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.2291039219421</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1158723.120068432</v>
+        <v>1158723.120068431</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1158723.120068432</v>
+        <v>1158723.120068431</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1158723.120068432</v>
+        <v>1158723.120068431</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1158723.120068431</v>
+        <v>1158723.120068432</v>
       </c>
     </row>
     <row r="13">
@@ -26317,22 +26317,22 @@
         <v>266838.5752058921</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="E2" t="n">
-        <v>238091.5043891786</v>
+        <v>238091.5043891788</v>
       </c>
       <c r="F2" t="n">
+        <v>262322.6448992519</v>
+      </c>
+      <c r="G2" t="n">
         <v>262322.644899252</v>
-      </c>
-      <c r="G2" t="n">
-        <v>262322.6448992519</v>
       </c>
       <c r="H2" t="n">
         <v>262322.6448992519</v>
       </c>
       <c r="I2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="J2" t="n">
         <v>262322.6448992519</v>
@@ -26341,7 +26341,7 @@
         <v>262322.6448992519</v>
       </c>
       <c r="L2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="M2" t="n">
         <v>262322.6448992519</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657076</v>
+        <v>132804.2190657061</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929371</v>
+        <v>265413.0723929384</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545764</v>
+        <v>313577.1573545776</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704297</v>
+        <v>189308.2687704286</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417435</v>
+        <v>30877.429264174</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049563</v>
+        <v>65018.34502049587</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273052</v>
+        <v>81897.40371273083</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202386</v>
+        <v>49839.57413202352</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>248543.2666865468</v>
+        <v>248543.2666865467</v>
       </c>
       <c r="C4" t="n">
-        <v>212545.7959513238</v>
+        <v>212545.7959513242</v>
       </c>
       <c r="D4" t="n">
         <v>136726.2736921025</v>
@@ -26427,37 +26427,37 @@
         <v>9231.78179711005</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756581</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756584</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756595</v>
+        <v>9337.200356756613</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756552</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.20035675655</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="O4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="P4" t="n">
         <v>9337.200356756573</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9337.20035675655</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9337.200356756533</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9337.200356756573</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9337.200356756552</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667498</v>
+        <v>72593.65038667488</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.4850673856</v>
+        <v>85137.48506738569</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-724840.4752761141</v>
+        <v>-724840.4752761142</v>
       </c>
       <c r="C6" t="n">
-        <v>-151105.0901978143</v>
+        <v>-151105.090197813</v>
       </c>
       <c r="D6" t="n">
-        <v>-228238.5433189924</v>
+        <v>-228238.5433189936</v>
       </c>
       <c r="E6" t="n">
-        <v>-169854.9198298934</v>
+        <v>-170076.0511438693</v>
       </c>
       <c r="F6" t="n">
-        <v>-37445.35405184142</v>
+        <v>-37480.09197727612</v>
       </c>
       <c r="G6" t="n">
-        <v>151862.914718588</v>
+        <v>151828.1767931526</v>
       </c>
       <c r="H6" t="n">
-        <v>151862.9147185882</v>
+        <v>151828.1767931525</v>
       </c>
       <c r="I6" t="n">
-        <v>151862.9147185882</v>
+        <v>151828.1767931525</v>
       </c>
       <c r="J6" t="n">
-        <v>82863.76029947416</v>
+        <v>82829.02237403847</v>
       </c>
       <c r="K6" t="n">
-        <v>120985.4854544139</v>
+        <v>120950.7475289785</v>
       </c>
       <c r="L6" t="n">
-        <v>86844.56969809253</v>
+        <v>86809.8317726567</v>
       </c>
       <c r="M6" t="n">
-        <v>69965.5110058577</v>
+        <v>69930.77308042164</v>
       </c>
       <c r="N6" t="n">
-        <v>102023.3405865644</v>
+        <v>101988.6026611289</v>
       </c>
       <c r="O6" t="n">
-        <v>151862.9147185882</v>
+        <v>151828.1767931525</v>
       </c>
       <c r="P6" t="n">
-        <v>151862.9147185883</v>
+        <v>151828.1767931525</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695753</v>
+        <v>717.3319511695742</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.24123721495</v>
+        <v>1202.241237214951</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154316</v>
+        <v>383.6877278154303</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490081</v>
+        <v>969.2208239490093</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26817,19 +26817,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.276937400097</v>
+        <v>103.2769374000958</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479639</v>
+        <v>216.7329409479649</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974105</v>
+        <v>268.1763450974115</v>
       </c>
       <c r="F3" t="n">
-        <v>165.734263126724</v>
+        <v>165.7342631267231</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139254</v>
+        <v>119.973847813924</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846074</v>
+        <v>256.8971042846086</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489692</v>
+        <v>328.6359918489704</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506402</v>
+        <v>203.4874641506389</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139254</v>
+        <v>119.973847813924</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846076</v>
+        <v>256.8971042846086</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489692</v>
+        <v>328.6359918489704</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506402</v>
+        <v>203.4874641506389</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139254</v>
+        <v>119.973847813924</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846074</v>
+        <v>256.8971042846086</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489692</v>
+        <v>328.6359918489704</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506402</v>
+        <v>203.4874641506389</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.1202946442037</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>55.50534762821431</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27436,16 +27436,16 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590676</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>144.3279609148539</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545473</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>100.1260405307224</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>169.8268794663271</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>118.0241848498625</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>31.11509405331878</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117135</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>212.8390710416517</v>
       </c>
       <c r="F5" t="n">
-        <v>220.1656809310358</v>
+        <v>23.18831792628117</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>28.73126316233967</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899766</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863684</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660375</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
         <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>124.8707990824828</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8005767399402</v>
+        <v>17.41321166238008</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.33388804333228</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951728</v>
+        <v>36.27346476951736</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713778</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0237294698459</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>115.7221004847199</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6974299383169</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.0759303845901</v>
+        <v>150.7263422083602</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015377</v>
+        <v>116.5499160015378</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315184</v>
+        <v>119.1307056315185</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059546</v>
+        <v>201.4735595059547</v>
       </c>
       <c r="T7" t="n">
         <v>222.4186055422208</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>77.8519928400458</v>
+        <v>49.6627134684482</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28059,19 +28059,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>18.317207714689</v>
       </c>
       <c r="U10" t="n">
-        <v>114.2072408992934</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>9.285372470912988e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-6.063298011819521e-13</v>
+        <v>-2.899014361901209e-12</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28731,7 +28731,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>3.880510727564494e-12</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30745,10 +30745,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365125</v>
+        <v>2.88374653736512</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579059</v>
+        <v>29.53316922579054</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817691</v>
+        <v>111.1756383817689</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756935</v>
+        <v>244.7543826756931</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023593</v>
+        <v>366.8233736023587</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952473</v>
+        <v>455.0768316952466</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791143</v>
+        <v>506.3606591791135</v>
       </c>
       <c r="N5" t="n">
-        <v>514.554104028403</v>
+        <v>514.5541040284022</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974785</v>
+        <v>485.8788493974777</v>
       </c>
       <c r="P5" t="n">
-        <v>414.686356756277</v>
+        <v>414.6863567562763</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868883</v>
+        <v>311.4121838868878</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277622</v>
+        <v>181.1461434277619</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020784</v>
+        <v>65.71337422020774</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731584</v>
+        <v>12.62360046731582</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892099</v>
+        <v>0.2306997229892095</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270407</v>
+        <v>1.542940423270405</v>
       </c>
       <c r="H6" t="n">
-        <v>14.9015561931642</v>
+        <v>14.90155619316418</v>
       </c>
       <c r="I6" t="n">
-        <v>53.1231680818978</v>
+        <v>53.12316808189772</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862625</v>
+        <v>145.7740335862622</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453798</v>
+        <v>249.1510419453794</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438663</v>
+        <v>335.0143230438658</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874185</v>
+        <v>390.9459133874179</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189118</v>
+        <v>401.2930884189111</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348675</v>
+        <v>367.1047769348669</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190658</v>
+        <v>294.6339480190653</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739559</v>
+        <v>196.9549915739556</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392936</v>
+        <v>95.79765189392921</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399197</v>
+        <v>28.65944163399193</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989051</v>
+        <v>6.219132670989041</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1015092383730531</v>
+        <v>0.101509238373053</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141857</v>
+        <v>1.293549420141855</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907943</v>
+        <v>11.50083029907941</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572058</v>
+        <v>38.90055892572052</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402928</v>
+        <v>91.45394400402914</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401175</v>
+        <v>150.2869235401173</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545448</v>
+        <v>192.3155201545445</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773276</v>
+        <v>202.7697513773273</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022536</v>
+        <v>197.9483399022533</v>
       </c>
       <c r="O7" t="n">
-        <v>182.83733076696</v>
+        <v>182.8373307669597</v>
       </c>
       <c r="P7" t="n">
-        <v>156.448922596066</v>
+        <v>156.4489225960657</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266059</v>
+        <v>108.3171246266057</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565112</v>
+        <v>58.16268574565103</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101763</v>
+        <v>22.54303853101759</v>
       </c>
       <c r="T7" t="n">
-        <v>5.52698388606066</v>
+        <v>5.526983886060651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864682</v>
+        <v>0.07055724109864671</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869141</v>
+        <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639235</v>
+        <v>49.49729877639239</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285602</v>
+        <v>186.3292675285604</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203914</v>
+        <v>410.2059184203917</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975122</v>
+        <v>614.7923367975127</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544651</v>
+        <v>762.7042574544657</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954554</v>
+        <v>848.655443795456</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180162</v>
+        <v>862.3875761180168</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956799</v>
+        <v>814.3281336956804</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620353</v>
+        <v>695.0102219620359</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825966</v>
+        <v>521.9237322825969</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696627</v>
+        <v>303.5991401696629</v>
       </c>
       <c r="S11" t="n">
         <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968218</v>
+        <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495312</v>
+        <v>0.3866504481495315</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858571</v>
+        <v>2.585952849858573</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837094</v>
+        <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469204</v>
+        <v>89.03390294469212</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>213.9979842891631</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598378</v>
+        <v>417.5746757598381</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747744</v>
+        <v>561.4806834747749</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821475</v>
+        <v>655.2214742821481</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340501</v>
+        <v>672.5632370340505</v>
       </c>
       <c r="O12" t="n">
-        <v>615.263965992447</v>
+        <v>615.2639659924474</v>
       </c>
       <c r="P12" t="n">
-        <v>221.13476503683</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047538</v>
+        <v>330.094612904754</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.0329399962765</v>
+        <v>48.03293999627653</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868432</v>
+        <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643797</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535155</v>
+        <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092166</v>
+        <v>19.27527754092168</v>
       </c>
       <c r="I13" t="n">
-        <v>65.1969510279845</v>
+        <v>65.19695102798455</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085354</v>
+        <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329025</v>
+        <v>251.8793936329027</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100539</v>
+        <v>322.3189048100542</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770061</v>
+        <v>339.8400926770064</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531026</v>
+        <v>331.7594548531029</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806237</v>
+        <v>306.4335533806239</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493063</v>
+        <v>262.2068429493065</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194574</v>
+        <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811703</v>
+        <v>97.48008457811711</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493537</v>
+        <v>37.7819090449354</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377478</v>
+        <v>9.263170188377485</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473722</v>
+        <v>0.1182532364473723</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,31 +32075,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>189.0011860882997</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,16 +33263,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>400.5469039565762</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>153.4895779655508</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34790,13 +34790,13 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900719</v>
+        <v>63.70847814900679</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573787</v>
+        <v>146.7335225573781</v>
       </c>
       <c r="L5" t="n">
-        <v>219.31041672526</v>
+        <v>219.3104167252594</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518415</v>
+        <v>276.0144259518407</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318121</v>
+        <v>285.1410404318113</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757918</v>
+        <v>255.780637975791</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010074</v>
+        <v>183.4533610010067</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243884</v>
+        <v>89.10649401243833</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.93640691959581</v>
+        <v>145.0274422600044</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710208</v>
+        <v>111.3096029710204</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639921</v>
+        <v>196.4599432639916</v>
       </c>
       <c r="M6" t="n">
-        <v>383.6877278154316</v>
+        <v>248.8118794653996</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355785</v>
+        <v>269.9513763355778</v>
       </c>
       <c r="O6" t="n">
-        <v>321.2705614062485</v>
+        <v>224.5085324904225</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047355</v>
+        <v>160.6595406047351</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793433</v>
+        <v>162.5200594133806</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142347</v>
+        <v>128.0174317142344</v>
       </c>
       <c r="L7" t="n">
-        <v>219.905545414861</v>
+        <v>219.9055454148607</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391682</v>
+        <v>242.3536283391679</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814822</v>
+        <v>242.0805122814818</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809997</v>
+        <v>207.4224586809994</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609595</v>
+        <v>153.7274818609592</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491148</v>
+        <v>22.1550813749113</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>622.4553810291986</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>640.584832100039</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>336.3802954844301</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937051</v>
+        <v>229.1600138937054</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525317</v>
+        <v>394.7024857525321</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844779</v>
+        <v>526.9378424844786</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681827</v>
+        <v>618.3092105681833</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214254</v>
+        <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739931</v>
+        <v>584.2299222739937</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067658</v>
+        <v>463.7772262067663</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081471</v>
+        <v>299.6180424081474</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553057</v>
+        <v>88.01360235553079</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>87.16035762249641</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854788</v>
+        <v>279.7332367854791</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949002</v>
+        <v>422.9263036949007</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601292</v>
+        <v>513.0874403601297</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507168</v>
+        <v>541.2215249507173</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480025</v>
+        <v>472.667721548003</v>
       </c>
       <c r="P12" t="n">
-        <v>87.16035762249979</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187323</v>
+        <v>190.1128388187325</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186267</v>
+        <v>59.91672319186279</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070196</v>
+        <v>229.6099018070198</v>
       </c>
       <c r="L13" t="n">
-        <v>349.90893007037</v>
+        <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388467</v>
+        <v>379.423969638847</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323312</v>
+        <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946633</v>
+        <v>331.0186812946636</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141998</v>
+        <v>259.4854022142</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776303</v>
+        <v>95.37638356776314</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>57.65947400496642</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,13 +36914,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>257.9506595121318</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
